--- a/team_specific_matrix/Pacific_B.xlsx
+++ b/team_specific_matrix/Pacific_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2360655737704918</v>
+        <v>0.2212189616252822</v>
       </c>
       <c r="C2">
-        <v>0.4852459016393443</v>
+        <v>0.5079006772009029</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01639344262295082</v>
+        <v>0.01580135440180587</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1967213114754098</v>
+        <v>0.1896162528216704</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06557377049180328</v>
+        <v>0.0654627539503386</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="C3">
-        <v>0.0375</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01875</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75625</v>
+        <v>0.7593360995850622</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.18125</v>
+        <v>0.1784232365145228</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1162790697674419</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2093023255813954</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08974358974358974</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02564102564102564</v>
+        <v>0.02147239263803681</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2564102564102564</v>
+        <v>0.2822085889570552</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04700854700854701</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1794871794871795</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.05214723926380368</v>
       </c>
       <c r="S6">
-        <v>0.2692307692307692</v>
+        <v>0.2975460122699387</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1300448430493273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005952380952380952</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05952380952380952</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1614349775784753</v>
       </c>
       <c r="R7">
-        <v>0.130952380952381</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="S7">
-        <v>0.3392857142857143</v>
+        <v>0.3632286995515695</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09116809116809117</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03418803418803419</v>
+        <v>0.02579365079365079</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07122507122507123</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1225071225071225</v>
+        <v>0.121031746031746</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02279202279202279</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2165242165242165</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="R8">
-        <v>0.1367521367521368</v>
+        <v>0.1170634920634921</v>
       </c>
       <c r="S8">
-        <v>0.3048433048433049</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1162790697674419</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04069767441860465</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09302325581395349</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1162790697674419</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05232558139534884</v>
+        <v>0.04016064257028112</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1337209302325581</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="R9">
-        <v>0.1046511627906977</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="S9">
-        <v>0.3430232558139535</v>
+        <v>0.3413654618473896</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1030927835051546</v>
+        <v>0.107993647432504</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01506740681998414</v>
+        <v>0.01958708311275807</v>
       </c>
       <c r="E10">
-        <v>0.0007930214115781126</v>
+        <v>0.001058761249338274</v>
       </c>
       <c r="F10">
-        <v>0.0626486915146709</v>
+        <v>0.06087877183695077</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.119746233148295</v>
+        <v>0.1217575436739015</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02220459952418715</v>
+        <v>0.02541026998411858</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2386994448850119</v>
+        <v>0.2535733192165167</v>
       </c>
       <c r="R10">
-        <v>0.08961141950832673</v>
+        <v>0.08734780307040763</v>
       </c>
       <c r="S10">
-        <v>0.3481363996827914</v>
+        <v>0.3223928004235045</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003436426116838488</v>
+        <v>0.002652519893899204</v>
       </c>
       <c r="G11">
-        <v>0.1855670103092784</v>
+        <v>0.1856763925729443</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1168384879725086</v>
+        <v>0.1273209549071618</v>
       </c>
       <c r="K11">
-        <v>0.2233676975945017</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L11">
-        <v>0.4570446735395189</v>
+        <v>0.4429708222811671</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01374570446735395</v>
+        <v>0.01061007957559682</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6814814814814815</v>
+        <v>0.6763005780346821</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2518518518518518</v>
+        <v>0.2658959537572254</v>
       </c>
       <c r="K12">
-        <v>0.02222222222222222</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="L12">
-        <v>0.02962962962962963</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01481481481481482</v>
+        <v>0.0115606936416185</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.54</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01968503937007874</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1574803149606299</v>
+        <v>0.1479452054794521</v>
       </c>
       <c r="I15">
-        <v>0.04724409448818898</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="J15">
-        <v>0.3503937007874016</v>
+        <v>0.389041095890411</v>
       </c>
       <c r="K15">
-        <v>0.1023622047244094</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007874015748031496</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09842519685039371</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2165354330708661</v>
+        <v>0.2246575342465753</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03015075376884422</v>
+        <v>0.02693602693602693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1256281407035176</v>
+        <v>0.1279461279461279</v>
       </c>
       <c r="I16">
-        <v>0.08542713567839195</v>
+        <v>0.08754208754208755</v>
       </c>
       <c r="J16">
-        <v>0.4371859296482412</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="K16">
-        <v>0.1005025125628141</v>
+        <v>0.09427609427609428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04522613065326633</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08040201005025126</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09547738693467336</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0303030303030303</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1601731601731602</v>
+        <v>0.1626928471248247</v>
       </c>
       <c r="I17">
-        <v>0.1168831168831169</v>
+        <v>0.1107994389901823</v>
       </c>
       <c r="J17">
-        <v>0.4545454545454545</v>
+        <v>0.4698457223001403</v>
       </c>
       <c r="K17">
-        <v>0.09307359307359307</v>
+        <v>0.07854137447405329</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01515151515151515</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002805049088359046</v>
       </c>
       <c r="O17">
-        <v>0.05844155844155844</v>
+        <v>0.05890603085553997</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07142857142857142</v>
+        <v>0.07012622720897616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03333333333333333</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1285714285714286</v>
+        <v>0.1349480968858132</v>
       </c>
       <c r="I18">
-        <v>0.1238095238095238</v>
+        <v>0.1107266435986159</v>
       </c>
       <c r="J18">
-        <v>0.4190476190476191</v>
+        <v>0.4532871972318339</v>
       </c>
       <c r="K18">
-        <v>0.1047619047619048</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0380952380952381</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08571428571428572</v>
+        <v>0.07958477508650519</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06666666666666667</v>
+        <v>0.0726643598615917</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0297741273100616</v>
+        <v>0.02791696492483894</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1919917864476386</v>
+        <v>0.1875447387258411</v>
       </c>
       <c r="I19">
-        <v>0.06570841889117043</v>
+        <v>0.07015032211882606</v>
       </c>
       <c r="J19">
-        <v>0.4137577002053388</v>
+        <v>0.4223335719398711</v>
       </c>
       <c r="K19">
-        <v>0.1057494866529774</v>
+        <v>0.09949892627057981</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02772073921971253</v>
+        <v>0.02720114531138153</v>
       </c>
       <c r="N19">
-        <v>0.001026694045174538</v>
+        <v>0.001431639226914817</v>
       </c>
       <c r="O19">
-        <v>0.08521560574948665</v>
+        <v>0.08518253400143164</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07905544147843943</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Pacific_B.xlsx
+++ b/team_specific_matrix/Pacific_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2212189616252822</v>
+        <v>0.2236559139784946</v>
       </c>
       <c r="C2">
-        <v>0.5079006772009029</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01580135440180587</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1896162528216704</v>
+        <v>0.1870967741935484</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0654627539503386</v>
+        <v>0.06881720430107527</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008298755186721992</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C3">
-        <v>0.03319502074688797</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02074688796680498</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7593360995850622</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1784232365145228</v>
+        <v>0.1706349206349206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1449275362318841</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6231884057971014</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2318840579710145</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0705521472392638</v>
+        <v>0.07624633431085044</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02147239263803681</v>
+        <v>0.02052785923753666</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0736196319018405</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2822085889570552</v>
+        <v>0.281524926686217</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03680981595092025</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1656441717791411</v>
+        <v>0.1642228739002932</v>
       </c>
       <c r="R6">
-        <v>0.05214723926380368</v>
+        <v>0.05571847507331378</v>
       </c>
       <c r="S6">
-        <v>0.2975460122699387</v>
+        <v>0.2961876832844575</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1300448430493273</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01345291479820628</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04035874439461883</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1255605381165919</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04484304932735426</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1614349775784753</v>
+        <v>0.1516393442622951</v>
       </c>
       <c r="R7">
-        <v>0.1210762331838565</v>
+        <v>0.1188524590163934</v>
       </c>
       <c r="S7">
-        <v>0.3632286995515695</v>
+        <v>0.3565573770491803</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1104868913857678</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02579365079365079</v>
+        <v>0.02434456928838951</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06547619047619048</v>
+        <v>0.06554307116104868</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.121031746031746</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02380952380952381</v>
+        <v>0.02621722846441948</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2182539682539683</v>
+        <v>0.2209737827715356</v>
       </c>
       <c r="R8">
-        <v>0.1170634920634921</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="S8">
-        <v>0.3174603174603174</v>
+        <v>0.3183520599250936</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09236947791164658</v>
+        <v>0.09266409266409266</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04819277108433735</v>
+        <v>0.04633204633204633</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07630522088353414</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1164658634538153</v>
+        <v>0.1196911196911197</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04016064257028112</v>
+        <v>0.03861003861003861</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1847389558232932</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="R9">
-        <v>0.1004016064257028</v>
+        <v>0.1003861003861004</v>
       </c>
       <c r="S9">
-        <v>0.3413654618473896</v>
+        <v>0.3474903474903475</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.107993647432504</v>
+        <v>0.1066195048004042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01958708311275807</v>
+        <v>0.01970692268822638</v>
       </c>
       <c r="E10">
-        <v>0.001058761249338274</v>
+        <v>0.001515917129863567</v>
       </c>
       <c r="F10">
-        <v>0.06087877183695077</v>
+        <v>0.06114199090449722</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1217575436739015</v>
+        <v>0.1217786760990399</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02541026998411858</v>
+        <v>0.02425467407781708</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2535733192165167</v>
+        <v>0.2531581606872157</v>
       </c>
       <c r="R10">
-        <v>0.08734780307040763</v>
+        <v>0.08943911066195048</v>
       </c>
       <c r="S10">
-        <v>0.3223928004235045</v>
+        <v>0.3223850429509854</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002652519893899204</v>
+        <v>0.002398081534772182</v>
       </c>
       <c r="G11">
-        <v>0.1856763925729443</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1273209549071618</v>
+        <v>0.1247002398081535</v>
       </c>
       <c r="K11">
-        <v>0.2307692307692308</v>
+        <v>0.2350119904076739</v>
       </c>
       <c r="L11">
-        <v>0.4429708222811671</v>
+        <v>0.4388489208633093</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01061007957559682</v>
+        <v>0.01199040767386091</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6763005780346821</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2658959537572254</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K12">
-        <v>0.01734104046242774</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="L12">
-        <v>0.02890173410404624</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0115606936416185</v>
+        <v>0.01058201058201058</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.391304347826087</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.04285714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02465753424657534</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1479452054794521</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="I15">
-        <v>0.0410958904109589</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="J15">
-        <v>0.389041095890411</v>
+        <v>0.3941798941798942</v>
       </c>
       <c r="K15">
-        <v>0.07397260273972603</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005479452054794521</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09315068493150686</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2246575342465753</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02693602693602693</v>
+        <v>0.0255591054313099</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1279461279461279</v>
+        <v>0.1277955271565495</v>
       </c>
       <c r="I16">
-        <v>0.08754208754208755</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="J16">
-        <v>0.4343434343434344</v>
+        <v>0.4249201277955272</v>
       </c>
       <c r="K16">
-        <v>0.09427609427609428</v>
+        <v>0.1054313099041534</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04713804713804714</v>
+        <v>0.04472843450479233</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09090909090909091</v>
+        <v>0.08945686900958466</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09090909090909091</v>
+        <v>0.09584664536741214</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03225806451612903</v>
+        <v>0.03078982597054886</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1626928471248247</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I17">
-        <v>0.1107994389901823</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="J17">
-        <v>0.4698457223001403</v>
+        <v>0.461847389558233</v>
       </c>
       <c r="K17">
-        <v>0.07854137447405329</v>
+        <v>0.08165997322623829</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01402524544179523</v>
+        <v>0.01338688085676037</v>
       </c>
       <c r="N17">
-        <v>0.002805049088359046</v>
+        <v>0.002677376171352075</v>
       </c>
       <c r="O17">
-        <v>0.05890603085553997</v>
+        <v>0.05890227576974565</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07012622720897616</v>
+        <v>0.07362784471218206</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02768166089965398</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1349480968858132</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="I18">
-        <v>0.1107266435986159</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="J18">
-        <v>0.4532871972318339</v>
+        <v>0.4577922077922078</v>
       </c>
       <c r="K18">
-        <v>0.09342560553633218</v>
+        <v>0.09415584415584416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02768166089965398</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07958477508650519</v>
+        <v>0.07467532467532467</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0726643598615917</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02791696492483894</v>
+        <v>0.026512576478586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1875447387258411</v>
+        <v>0.1876274643099932</v>
       </c>
       <c r="I19">
-        <v>0.07015032211882606</v>
+        <v>0.06866077498300475</v>
       </c>
       <c r="J19">
-        <v>0.4223335719398711</v>
+        <v>0.4194425560842964</v>
       </c>
       <c r="K19">
-        <v>0.09949892627057981</v>
+        <v>0.1046906866077498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02720114531138153</v>
+        <v>0.026512576478586</v>
       </c>
       <c r="N19">
-        <v>0.001431639226914817</v>
+        <v>0.001359619306594154</v>
       </c>
       <c r="O19">
-        <v>0.08518253400143164</v>
+        <v>0.08565601631543168</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07874015748031496</v>
+        <v>0.07953772943575799</v>
       </c>
     </row>
   </sheetData>
